--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes.xlsx
@@ -514,13 +514,13 @@
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -542,23 +542,23 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -595,13 +595,13 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes.xlsx
@@ -482,18 +482,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,13 +537,13 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
@@ -556,23 +556,23 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -581,13 +581,13 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
@@ -595,13 +595,13 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
